--- a/school_nien_khoa.xlsx
+++ b/school_nien_khoa.xlsx
@@ -30,7 +30,7 @@
     <t>nien_khoa_tit</t>
   </si>
   <si>
-    <t>nÄƒm há»c 2021-2022</t>
+    <t>năm học 2001-2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -859,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>

--- a/school_nien_khoa.xlsx
+++ b/school_nien_khoa.xlsx
@@ -30,7 +30,7 @@
     <t>nien_khoa_tit</t>
   </si>
   <si>
-    <t>năm học 2001-2021</t>
+    <t>năm học 2022-2023</t>
   </si>
 </sst>
 </file>
@@ -840,7 +840,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
